--- a/Time sheet/Timetsheet - Eric(Week3).xlsx
+++ b/Time sheet/Timetsheet - Eric(Week3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Google Drive/U Adelaide course materials/MCI projects/Team-024/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C32FCD1-BBBF-8B4E-A933-20C2402A3E36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699432D-E51E-784D-88B0-3FB36DAA562F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,8 +650,8 @@
   </sheetPr>
   <dimension ref="A2:AW12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="34" x14ac:dyDescent="0.2">

--- a/Time sheet/Timetsheet - Eric(Week3).xlsx
+++ b/Time sheet/Timetsheet - Eric(Week3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Google Drive/U Adelaide course materials/MCI projects/Team-024/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699432D-E51E-784D-88B0-3FB36DAA562F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47102996-243F-DD4A-9264-13E5B6BFAB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Complete 45% of the online course at Udemy</t>
+  </si>
+  <si>
+    <t>Work on the first part of pitch presentation slides</t>
+  </si>
+  <si>
+    <t>Complete the first draft of the first part of the presentation slides</t>
+  </si>
+  <si>
+    <t>Prepare materials required for pitch presentation</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +313,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,7 +666,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +677,7 @@
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" customWidth="1"/>
     <col min="15" max="49" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -734,7 +749,9 @@
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="21">
+        <v>44270</v>
+      </c>
       <c r="C6" s="18">
         <v>0.375</v>
       </c>
@@ -852,13 +869,27 @@
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="21">
+        <v>44272</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -905,11 +936,13 @@
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16">
+      <c r="B9" s="21">
+        <v>44273</v>
+      </c>
+      <c r="C9" s="18">
         <v>0.875</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
         <v>0.625</v>
       </c>
       <c r="E9" s="12">
@@ -1078,7 +1111,7 @@
       </c>
       <c r="E12" s="8">
         <f>SUM(E6:E11)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
